--- a/data/pca/factorExposure/factorExposure_2015-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01877410740461534</v>
+        <v>0.01268006834410666</v>
       </c>
       <c r="C2">
-        <v>-0.03079431662958658</v>
+        <v>-0.04483845472736481</v>
       </c>
       <c r="D2">
-        <v>0.1320957274407329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1402134476570543</v>
+      </c>
+      <c r="E2">
+        <v>-0.001986974585857096</v>
+      </c>
+      <c r="F2">
+        <v>0.003683624268220704</v>
+      </c>
+      <c r="G2">
+        <v>0.1111621630459954</v>
+      </c>
+      <c r="H2">
+        <v>-0.04676170709473595</v>
+      </c>
+      <c r="I2">
+        <v>-0.061203385369043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02498319482396826</v>
+        <v>-0.02261089708163378</v>
       </c>
       <c r="C3">
-        <v>-0.03597968968345296</v>
+        <v>-0.01792514521753381</v>
       </c>
       <c r="D3">
-        <v>0.02346652835712025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.02647924529033212</v>
+      </c>
+      <c r="E3">
+        <v>-0.04148665000170759</v>
+      </c>
+      <c r="F3">
+        <v>0.01611022191816543</v>
+      </c>
+      <c r="G3">
+        <v>0.08714087008367759</v>
+      </c>
+      <c r="H3">
+        <v>-0.02573654104178611</v>
+      </c>
+      <c r="I3">
+        <v>0.04075732037209338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03217987990369028</v>
+        <v>0.02305844103044296</v>
       </c>
       <c r="C4">
-        <v>-0.07006106806412424</v>
+        <v>-0.0872675809541917</v>
       </c>
       <c r="D4">
-        <v>0.1395493007639366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1530683108524669</v>
+      </c>
+      <c r="E4">
+        <v>-0.02218308583257652</v>
+      </c>
+      <c r="F4">
+        <v>0.08079936078966109</v>
+      </c>
+      <c r="G4">
+        <v>-0.009626355287324306</v>
+      </c>
+      <c r="H4">
+        <v>-0.04540738248791657</v>
+      </c>
+      <c r="I4">
+        <v>-0.006528814791956957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02146986889522514</v>
+        <v>0.02164322974616763</v>
       </c>
       <c r="C6">
-        <v>-0.01524933001369435</v>
+        <v>-0.02873416783369927</v>
       </c>
       <c r="D6">
-        <v>0.1508303771887506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1325267616641929</v>
+      </c>
+      <c r="E6">
+        <v>0.03128716309721943</v>
+      </c>
+      <c r="F6">
+        <v>0.05797917570883965</v>
+      </c>
+      <c r="G6">
+        <v>0.04718053736924099</v>
+      </c>
+      <c r="H6">
+        <v>-0.02639695481165611</v>
+      </c>
+      <c r="I6">
+        <v>0.02099838393412171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0089079097218779</v>
+        <v>0.005546540087368168</v>
       </c>
       <c r="C7">
-        <v>-0.02687920186824071</v>
+        <v>-0.03469216080297795</v>
       </c>
       <c r="D7">
-        <v>0.1136903412374685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09412892716630289</v>
+      </c>
+      <c r="E7">
+        <v>0.04069448667951367</v>
+      </c>
+      <c r="F7">
+        <v>0.01181071327142813</v>
+      </c>
+      <c r="G7">
+        <v>0.03970378836498712</v>
+      </c>
+      <c r="H7">
+        <v>-0.05654020768948181</v>
+      </c>
+      <c r="I7">
+        <v>0.04860405540218879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002065435552383667</v>
+        <v>-0.00474254239986941</v>
       </c>
       <c r="C8">
-        <v>-0.03239959431405266</v>
+        <v>-0.03828644951579866</v>
       </c>
       <c r="D8">
-        <v>0.08365982477533815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08333598730067195</v>
+      </c>
+      <c r="E8">
+        <v>0.01146039095440454</v>
+      </c>
+      <c r="F8">
+        <v>0.05076593328259236</v>
+      </c>
+      <c r="G8">
+        <v>0.09158617765565144</v>
+      </c>
+      <c r="H8">
+        <v>0.005092252462463096</v>
+      </c>
+      <c r="I8">
+        <v>0.02809536096585854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02668815711526198</v>
+        <v>0.01697290489035051</v>
       </c>
       <c r="C9">
-        <v>-0.06627570995885136</v>
+        <v>-0.07817198086237495</v>
       </c>
       <c r="D9">
-        <v>0.1315282542127838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1280979741855612</v>
+      </c>
+      <c r="E9">
+        <v>-0.01109546144020503</v>
+      </c>
+      <c r="F9">
+        <v>0.04767631049509632</v>
+      </c>
+      <c r="G9">
+        <v>-0.007779009094507161</v>
+      </c>
+      <c r="H9">
+        <v>-0.04916368740803111</v>
+      </c>
+      <c r="I9">
+        <v>0.001123623661748747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1601786257648682</v>
+        <v>0.2135841187072678</v>
       </c>
       <c r="C10">
-        <v>0.1623799950065543</v>
+        <v>0.1237816840590661</v>
       </c>
       <c r="D10">
-        <v>0.01806610870398786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01600300062729684</v>
+      </c>
+      <c r="E10">
+        <v>-0.02732397223476682</v>
+      </c>
+      <c r="F10">
+        <v>0.04861731804261289</v>
+      </c>
+      <c r="G10">
+        <v>-0.003215847563794577</v>
+      </c>
+      <c r="H10">
+        <v>0.05995773732180499</v>
+      </c>
+      <c r="I10">
+        <v>0.1029690894898162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02059373634021779</v>
+        <v>0.01248261555104698</v>
       </c>
       <c r="C11">
-        <v>-0.04472939537220256</v>
+        <v>-0.05298024064241243</v>
       </c>
       <c r="D11">
-        <v>0.05514966451877165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04987922800684064</v>
+      </c>
+      <c r="E11">
+        <v>0.01951541879917615</v>
+      </c>
+      <c r="F11">
+        <v>-0.01222025186079533</v>
+      </c>
+      <c r="G11">
+        <v>0.01093584014702663</v>
+      </c>
+      <c r="H11">
+        <v>-0.04254528910006547</v>
+      </c>
+      <c r="I11">
+        <v>0.001606391097513769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02263636717656662</v>
+        <v>0.01364662042112136</v>
       </c>
       <c r="C12">
-        <v>-0.04220731268885104</v>
+        <v>-0.0490317492521592</v>
       </c>
       <c r="D12">
-        <v>0.06747948035159225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0523475625101522</v>
+      </c>
+      <c r="E12">
+        <v>0.01533488806955756</v>
+      </c>
+      <c r="F12">
+        <v>-0.01447270303105874</v>
+      </c>
+      <c r="G12">
+        <v>0.007158404392303872</v>
+      </c>
+      <c r="H12">
+        <v>-0.07055653696672075</v>
+      </c>
+      <c r="I12">
+        <v>0.01110666267930094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.001105870904041524</v>
+        <v>0.0004383542151591282</v>
       </c>
       <c r="C13">
-        <v>-0.02789008482529165</v>
+        <v>-0.04054600794077724</v>
       </c>
       <c r="D13">
-        <v>0.1538754545100079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1574592820238291</v>
+      </c>
+      <c r="E13">
+        <v>0.03784502387810872</v>
+      </c>
+      <c r="F13">
+        <v>0.0447950047884439</v>
+      </c>
+      <c r="G13">
+        <v>0.05467631868691022</v>
+      </c>
+      <c r="H13">
+        <v>-0.05504498239685173</v>
+      </c>
+      <c r="I13">
+        <v>0.06091336504047754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004508234714695905</v>
+        <v>-0.00228165182456525</v>
       </c>
       <c r="C14">
-        <v>-0.02286526438882652</v>
+        <v>-0.02682159984596626</v>
       </c>
       <c r="D14">
-        <v>0.1098856961558152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1063115222153954</v>
+      </c>
+      <c r="E14">
+        <v>0.01792260033958633</v>
+      </c>
+      <c r="F14">
+        <v>0.01979900391602887</v>
+      </c>
+      <c r="G14">
+        <v>0.05817948238023574</v>
+      </c>
+      <c r="H14">
+        <v>-0.1025510807111647</v>
+      </c>
+      <c r="I14">
+        <v>0.01010682500359576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002650079944025553</v>
+        <v>-0.001160172240170961</v>
       </c>
       <c r="C15">
-        <v>-0.01171924918889874</v>
+        <v>-0.01643943802044811</v>
       </c>
       <c r="D15">
-        <v>0.02382124336896064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04535397204569992</v>
+      </c>
+      <c r="E15">
+        <v>0.003389359132488716</v>
+      </c>
+      <c r="F15">
+        <v>0.002386152777888085</v>
+      </c>
+      <c r="G15">
+        <v>0.02270453580464648</v>
+      </c>
+      <c r="H15">
+        <v>-0.01237566944483429</v>
+      </c>
+      <c r="I15">
+        <v>-0.01981874659166359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01938575720143436</v>
+        <v>0.01317618467027488</v>
       </c>
       <c r="C16">
-        <v>-0.04050468201697561</v>
+        <v>-0.04758355467785406</v>
       </c>
       <c r="D16">
-        <v>0.0635170977444762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05251396344718345</v>
+      </c>
+      <c r="E16">
+        <v>0.01940453814138123</v>
+      </c>
+      <c r="F16">
+        <v>-0.006491754744039484</v>
+      </c>
+      <c r="G16">
+        <v>0.003443568423873997</v>
+      </c>
+      <c r="H16">
+        <v>-0.0502219695115862</v>
+      </c>
+      <c r="I16">
+        <v>0.003098587033828579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001298536082438554</v>
+        <v>-0.003248858131075536</v>
       </c>
       <c r="C19">
-        <v>-0.02408834297003302</v>
+        <v>-0.01897959867295416</v>
       </c>
       <c r="D19">
-        <v>0.1429908456114697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09935932883054432</v>
+      </c>
+      <c r="E19">
+        <v>-0.02119501159655123</v>
+      </c>
+      <c r="F19">
+        <v>0.008389714147303549</v>
+      </c>
+      <c r="G19">
+        <v>0.03151308011293951</v>
+      </c>
+      <c r="H19">
+        <v>-0.06801404841308782</v>
+      </c>
+      <c r="I19">
+        <v>0.02845405666786822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002439923968012953</v>
+        <v>0.002888053040892118</v>
       </c>
       <c r="C20">
-        <v>-0.03117232836250704</v>
+        <v>-0.03762538952571847</v>
       </c>
       <c r="D20">
-        <v>0.09433597090319221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1028914891626527</v>
+      </c>
+      <c r="E20">
+        <v>-0.004358373716298891</v>
+      </c>
+      <c r="F20">
+        <v>0.03098653801243565</v>
+      </c>
+      <c r="G20">
+        <v>0.03553980488077282</v>
+      </c>
+      <c r="H20">
+        <v>-0.05959127335216828</v>
+      </c>
+      <c r="I20">
+        <v>0.02278906201028167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0005242116380288063</v>
+        <v>-0.002621288688102223</v>
       </c>
       <c r="C21">
-        <v>-0.03630678494639809</v>
+        <v>-0.04232961534136696</v>
       </c>
       <c r="D21">
-        <v>0.1712242600961946</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1486110560257399</v>
+      </c>
+      <c r="E21">
+        <v>-0.01783274706720303</v>
+      </c>
+      <c r="F21">
+        <v>0.06147465937950832</v>
+      </c>
+      <c r="G21">
+        <v>0.06420252983418198</v>
+      </c>
+      <c r="H21">
+        <v>-0.1463674415499118</v>
+      </c>
+      <c r="I21">
+        <v>0.07275759561853848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003741145143903191</v>
+        <v>-0.004939773682797731</v>
       </c>
       <c r="C22">
-        <v>-0.05483805611271177</v>
+        <v>-0.0666139083261912</v>
       </c>
       <c r="D22">
-        <v>0.1865570520795106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2364123589151417</v>
+      </c>
+      <c r="E22">
+        <v>0.04402177944150613</v>
+      </c>
+      <c r="F22">
+        <v>0.03125319731092564</v>
+      </c>
+      <c r="G22">
+        <v>0.1683436388926073</v>
+      </c>
+      <c r="H22">
+        <v>0.4544880575168927</v>
+      </c>
+      <c r="I22">
+        <v>-0.2389123490013423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00356340037983984</v>
+        <v>-0.004516259854139364</v>
       </c>
       <c r="C23">
-        <v>-0.05525454415729664</v>
+        <v>-0.06749974586556116</v>
       </c>
       <c r="D23">
-        <v>0.1861072054584169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2371824482034099</v>
+      </c>
+      <c r="E23">
+        <v>0.04116728640841431</v>
+      </c>
+      <c r="F23">
+        <v>0.03013805348455655</v>
+      </c>
+      <c r="G23">
+        <v>0.1669069136729584</v>
+      </c>
+      <c r="H23">
+        <v>0.4545225059177315</v>
+      </c>
+      <c r="I23">
+        <v>-0.2404113843031965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02562380015300732</v>
+        <v>0.01386717194998287</v>
       </c>
       <c r="C24">
-        <v>-0.05861599943210558</v>
+        <v>-0.06387352394276576</v>
       </c>
       <c r="D24">
-        <v>0.07189553762611536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05772127056220382</v>
+      </c>
+      <c r="E24">
+        <v>0.01873492653840137</v>
+      </c>
+      <c r="F24">
+        <v>-0.003315904122795847</v>
+      </c>
+      <c r="G24">
+        <v>0.01796323081795708</v>
+      </c>
+      <c r="H24">
+        <v>-0.07314468325834203</v>
+      </c>
+      <c r="I24">
+        <v>0.002555686150868036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02944313603838714</v>
+        <v>0.01818404063640454</v>
       </c>
       <c r="C25">
-        <v>-0.05056365160064025</v>
+        <v>-0.05992905940973932</v>
       </c>
       <c r="D25">
-        <v>0.06994718158123779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05821676461767561</v>
+      </c>
+      <c r="E25">
+        <v>0.008526734505278145</v>
+      </c>
+      <c r="F25">
+        <v>-0.008337767651409016</v>
+      </c>
+      <c r="G25">
+        <v>0.003710501431527881</v>
+      </c>
+      <c r="H25">
+        <v>-0.04536261589090287</v>
+      </c>
+      <c r="I25">
+        <v>0.005472352128862833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.003426440308649535</v>
+        <v>0.004393460638704632</v>
       </c>
       <c r="C26">
-        <v>-0.01511588702696888</v>
+        <v>-0.02238007333768524</v>
       </c>
       <c r="D26">
-        <v>0.07565577757985568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07401377836462737</v>
+      </c>
+      <c r="E26">
+        <v>0.01666151804874692</v>
+      </c>
+      <c r="F26">
+        <v>0.02611787344566878</v>
+      </c>
+      <c r="G26">
+        <v>0.03349418855436903</v>
+      </c>
+      <c r="H26">
+        <v>-0.06497816827910967</v>
+      </c>
+      <c r="I26">
+        <v>0.04373606470830288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2438656926882802</v>
+        <v>0.3067647770908764</v>
       </c>
       <c r="C28">
-        <v>0.2069660169875412</v>
+        <v>0.1447173943783316</v>
       </c>
       <c r="D28">
-        <v>0.01498780951472316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003091098827858448</v>
+      </c>
+      <c r="E28">
+        <v>-0.04905387768075083</v>
+      </c>
+      <c r="F28">
+        <v>0.03664626347216433</v>
+      </c>
+      <c r="G28">
+        <v>-0.01908392071260415</v>
+      </c>
+      <c r="H28">
+        <v>0.03199747184723141</v>
+      </c>
+      <c r="I28">
+        <v>0.08001046845556432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.004927761561933468</v>
+        <v>-0.002251772032460038</v>
       </c>
       <c r="C29">
-        <v>-0.02099113353535377</v>
+        <v>-0.02610786102689709</v>
       </c>
       <c r="D29">
-        <v>0.1022125591152464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1040723637125459</v>
+      </c>
+      <c r="E29">
+        <v>0.03195859255803028</v>
+      </c>
+      <c r="F29">
+        <v>0.03087676253032681</v>
+      </c>
+      <c r="G29">
+        <v>0.04494289815177591</v>
+      </c>
+      <c r="H29">
+        <v>-0.09952723173035394</v>
+      </c>
+      <c r="I29">
+        <v>0.02044782525340611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01272832494768023</v>
+        <v>0.01171276643774761</v>
       </c>
       <c r="C30">
-        <v>-0.06186437099730773</v>
+        <v>-0.07719152634253761</v>
       </c>
       <c r="D30">
-        <v>0.1671231815873393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1685301814433957</v>
+      </c>
+      <c r="E30">
+        <v>0.03403478013961763</v>
+      </c>
+      <c r="F30">
+        <v>0.03932752666445379</v>
+      </c>
+      <c r="G30">
+        <v>0.03969300562178386</v>
+      </c>
+      <c r="H30">
+        <v>-0.03607215850203036</v>
+      </c>
+      <c r="I30">
+        <v>-0.04067549721743497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03834663654005638</v>
+        <v>0.01829584806504596</v>
       </c>
       <c r="C31">
-        <v>-0.08304694541866849</v>
+        <v>-0.08686965750359427</v>
       </c>
       <c r="D31">
-        <v>0.07644543773117736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04902071187678024</v>
+      </c>
+      <c r="E31">
+        <v>0.005834335601149215</v>
+      </c>
+      <c r="F31">
+        <v>0.02095723855285895</v>
+      </c>
+      <c r="G31">
+        <v>0.02360655709799238</v>
+      </c>
+      <c r="H31">
+        <v>-0.03726061783656748</v>
+      </c>
+      <c r="I31">
+        <v>0.05636132150498465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02132695371676955</v>
+        <v>0.01726574295854465</v>
       </c>
       <c r="C32">
-        <v>-0.02996093936125395</v>
+        <v>-0.03618449054865015</v>
       </c>
       <c r="D32">
-        <v>0.1114637759799962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.118430115514843</v>
+      </c>
+      <c r="E32">
+        <v>3.915378599902669e-05</v>
+      </c>
+      <c r="F32">
+        <v>0.04449564745241631</v>
+      </c>
+      <c r="G32">
+        <v>0.02497319565867915</v>
+      </c>
+      <c r="H32">
+        <v>-0.0156210768305428</v>
+      </c>
+      <c r="I32">
+        <v>0.06739070336916991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01139429916128718</v>
+        <v>0.008926765210651997</v>
       </c>
       <c r="C33">
-        <v>-0.04194537486950786</v>
+        <v>-0.05235801421358052</v>
       </c>
       <c r="D33">
-        <v>0.1513288272959477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1346568182668716</v>
+      </c>
+      <c r="E33">
+        <v>0.01076798516167418</v>
+      </c>
+      <c r="F33">
+        <v>0.02398201853984849</v>
+      </c>
+      <c r="G33">
+        <v>0.02629604360409378</v>
+      </c>
+      <c r="H33">
+        <v>-0.05674021105329034</v>
+      </c>
+      <c r="I33">
+        <v>0.009071808503175217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02473160880904881</v>
+        <v>0.01277086615116891</v>
       </c>
       <c r="C34">
-        <v>-0.06015851383323241</v>
+        <v>-0.0630519713356287</v>
       </c>
       <c r="D34">
-        <v>0.0554444395145799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03910295241004187</v>
+      </c>
+      <c r="E34">
+        <v>0.03123588424698132</v>
+      </c>
+      <c r="F34">
+        <v>-0.03489896082715131</v>
+      </c>
+      <c r="G34">
+        <v>0.01409872276783168</v>
+      </c>
+      <c r="H34">
+        <v>-0.05597737414104276</v>
+      </c>
+      <c r="I34">
+        <v>0.01836203048729181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001034323553281427</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.003554008942543126</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01351598010594495</v>
+      </c>
+      <c r="E35">
+        <v>0.001662794115815008</v>
+      </c>
+      <c r="F35">
+        <v>-0.001418480962437725</v>
+      </c>
+      <c r="G35">
+        <v>0.0006176651436596907</v>
+      </c>
+      <c r="H35">
+        <v>-0.006996996845716824</v>
+      </c>
+      <c r="I35">
+        <v>-0.003065735802777334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009075552538851799</v>
+        <v>0.01059070589063687</v>
       </c>
       <c r="C36">
-        <v>-0.00503940495458632</v>
+        <v>-0.01688854619863523</v>
       </c>
       <c r="D36">
-        <v>0.09799086449347821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08905367849144298</v>
+      </c>
+      <c r="E36">
+        <v>0.005562897388102329</v>
+      </c>
+      <c r="F36">
+        <v>0.03216794696941802</v>
+      </c>
+      <c r="G36">
+        <v>0.01929463336942546</v>
+      </c>
+      <c r="H36">
+        <v>-0.05704891377644335</v>
+      </c>
+      <c r="I36">
+        <v>0.0191771166356315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008798181151025399</v>
+        <v>0.0149340093958987</v>
       </c>
       <c r="C38">
-        <v>-0.01325131319094086</v>
+        <v>-0.01918183376882454</v>
       </c>
       <c r="D38">
-        <v>0.08652864289843371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08390779743463402</v>
+      </c>
+      <c r="E38">
+        <v>-0.0139571580383524</v>
+      </c>
+      <c r="F38">
+        <v>-0.01711263435124122</v>
+      </c>
+      <c r="G38">
+        <v>0.03163439080295367</v>
+      </c>
+      <c r="H38">
+        <v>-0.0467686582946053</v>
+      </c>
+      <c r="I38">
+        <v>0.005011053629826277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02213206149747242</v>
+        <v>0.01147955166297827</v>
       </c>
       <c r="C39">
-        <v>-0.05729646678758207</v>
+        <v>-0.07345222532217646</v>
       </c>
       <c r="D39">
-        <v>0.1069178606167731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1022488291967923</v>
+      </c>
+      <c r="E39">
+        <v>0.04364241681397765</v>
+      </c>
+      <c r="F39">
+        <v>-0.01123815376422704</v>
+      </c>
+      <c r="G39">
+        <v>0.01745778554165049</v>
+      </c>
+      <c r="H39">
+        <v>-0.09311712039417931</v>
+      </c>
+      <c r="I39">
+        <v>-0.04026998735993336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.008590106014096864</v>
+        <v>0.003892157994802233</v>
       </c>
       <c r="C40">
-        <v>-0.04138418533206534</v>
+        <v>-0.03928700398793884</v>
       </c>
       <c r="D40">
-        <v>0.116041827161315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1020669796859286</v>
+      </c>
+      <c r="E40">
+        <v>0.01322222124123104</v>
+      </c>
+      <c r="F40">
+        <v>0.03115096819790285</v>
+      </c>
+      <c r="G40">
+        <v>0.2432925389414841</v>
+      </c>
+      <c r="H40">
+        <v>-0.0319204889261322</v>
+      </c>
+      <c r="I40">
+        <v>0.1104470414934828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.02081947165667054</v>
+        <v>0.0195436265247565</v>
       </c>
       <c r="C41">
-        <v>7.681779879709736e-05</v>
+        <v>-0.01067669062353926</v>
       </c>
       <c r="D41">
-        <v>0.07390255576174475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05329022228819386</v>
+      </c>
+      <c r="E41">
+        <v>-0.01981855363791781</v>
+      </c>
+      <c r="F41">
+        <v>0.01440801935422316</v>
+      </c>
+      <c r="G41">
+        <v>0.02376672142791978</v>
+      </c>
+      <c r="H41">
+        <v>-0.02637730455031513</v>
+      </c>
+      <c r="I41">
+        <v>0.0431634113802471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01265257020863701</v>
+        <v>0.01077991573600052</v>
       </c>
       <c r="C43">
-        <v>-0.008016686428998108</v>
+        <v>-0.01487807548083708</v>
       </c>
       <c r="D43">
-        <v>0.0888021235211998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06564293501127871</v>
+      </c>
+      <c r="E43">
+        <v>-0.005642920876848031</v>
+      </c>
+      <c r="F43">
+        <v>0.0103637952150413</v>
+      </c>
+      <c r="G43">
+        <v>0.02960072282537799</v>
+      </c>
+      <c r="H43">
+        <v>-0.05633406912843096</v>
+      </c>
+      <c r="I43">
+        <v>0.04195057407744668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.001521368530808502</v>
+        <v>0.001807150643536484</v>
       </c>
       <c r="C44">
-        <v>-0.04031885868094802</v>
+        <v>-0.04315535388349221</v>
       </c>
       <c r="D44">
-        <v>0.09977980403173113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1156344501614432</v>
+      </c>
+      <c r="E44">
+        <v>0.0006024985876416116</v>
+      </c>
+      <c r="F44">
+        <v>0.02461497156325818</v>
+      </c>
+      <c r="G44">
+        <v>0.03702920256537218</v>
+      </c>
+      <c r="H44">
+        <v>-0.04921516100684931</v>
+      </c>
+      <c r="I44">
+        <v>-0.03428058464997859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005680419806874218</v>
+        <v>0.0002016858264572941</v>
       </c>
       <c r="C46">
-        <v>-0.02835193882496</v>
+        <v>-0.03394769783635149</v>
       </c>
       <c r="D46">
-        <v>0.1084972329742096</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09332522105220303</v>
+      </c>
+      <c r="E46">
+        <v>0.01627011694222277</v>
+      </c>
+      <c r="F46">
+        <v>0.02407505578586886</v>
+      </c>
+      <c r="G46">
+        <v>0.04335447850976814</v>
+      </c>
+      <c r="H46">
+        <v>-0.1122111915243745</v>
+      </c>
+      <c r="I46">
+        <v>0.0322503408578553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07698764645394432</v>
+        <v>0.04658634016752576</v>
       </c>
       <c r="C47">
-        <v>-0.1053569181831279</v>
+        <v>-0.1171417286657578</v>
       </c>
       <c r="D47">
-        <v>0.05903667016549979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03057183779078979</v>
+      </c>
+      <c r="E47">
+        <v>-0.01214031856423974</v>
+      </c>
+      <c r="F47">
+        <v>-0.00210347900418178</v>
+      </c>
+      <c r="G47">
+        <v>-0.02097138210666481</v>
+      </c>
+      <c r="H47">
+        <v>-0.03474782290832706</v>
+      </c>
+      <c r="I47">
+        <v>0.114818010152095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00344856795775746</v>
+        <v>0.005483617298450356</v>
       </c>
       <c r="C48">
-        <v>-0.01689824749510352</v>
+        <v>-0.02463001644803071</v>
       </c>
       <c r="D48">
-        <v>0.09151215092643555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09211100550967898</v>
+      </c>
+      <c r="E48">
+        <v>-0.01202006340996358</v>
+      </c>
+      <c r="F48">
+        <v>0.03548013663182487</v>
+      </c>
+      <c r="G48">
+        <v>0.03571591417887267</v>
+      </c>
+      <c r="H48">
+        <v>-0.07372737723272293</v>
+      </c>
+      <c r="I48">
+        <v>0.01745964975947462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03591429506503092</v>
+        <v>0.01968429153985468</v>
       </c>
       <c r="C50">
-        <v>-0.06332586569898618</v>
+        <v>-0.07180938141262423</v>
       </c>
       <c r="D50">
-        <v>0.07950280054230986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06035083279073469</v>
+      </c>
+      <c r="E50">
+        <v>0.001229467194969062</v>
+      </c>
+      <c r="F50">
+        <v>0.0101610529561098</v>
+      </c>
+      <c r="G50">
+        <v>0.03493502580541443</v>
+      </c>
+      <c r="H50">
+        <v>-0.01854389617396813</v>
+      </c>
+      <c r="I50">
+        <v>0.09271305303588048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0002055147746928199</v>
+        <v>0.0001774131215649988</v>
       </c>
       <c r="C51">
-        <v>-0.01062110907847933</v>
+        <v>-0.01746838375624688</v>
       </c>
       <c r="D51">
-        <v>0.06758980870393717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07314509578963897</v>
+      </c>
+      <c r="E51">
+        <v>0.02688084484056493</v>
+      </c>
+      <c r="F51">
+        <v>0.03883074434829078</v>
+      </c>
+      <c r="G51">
+        <v>0.05067271745914743</v>
+      </c>
+      <c r="H51">
+        <v>-0.04545509409662516</v>
+      </c>
+      <c r="I51">
+        <v>0.01284247313241821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09519931081358968</v>
+        <v>0.06616833283803973</v>
       </c>
       <c r="C53">
-        <v>-0.1254174594445602</v>
+        <v>-0.1476800100006563</v>
       </c>
       <c r="D53">
-        <v>0.02218337298913686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00995839302625813</v>
+      </c>
+      <c r="E53">
+        <v>-0.04733679153163291</v>
+      </c>
+      <c r="F53">
+        <v>0.06819400669502665</v>
+      </c>
+      <c r="G53">
+        <v>0.03138047822373497</v>
+      </c>
+      <c r="H53">
+        <v>-0.002621249252640571</v>
+      </c>
+      <c r="I53">
+        <v>0.09449104082466188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01075930795466577</v>
+        <v>0.007695680252167131</v>
       </c>
       <c r="C54">
-        <v>-0.02371814420930224</v>
+        <v>-0.03430755987606517</v>
       </c>
       <c r="D54">
-        <v>0.1143386778789367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09549198557293948</v>
+      </c>
+      <c r="E54">
+        <v>0.007657918867799546</v>
+      </c>
+      <c r="F54">
+        <v>0.003245009362868359</v>
+      </c>
+      <c r="G54">
+        <v>0.05839042225001306</v>
+      </c>
+      <c r="H54">
+        <v>-0.06710486029811781</v>
+      </c>
+      <c r="I54">
+        <v>0.05830025276709194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.08754034954001871</v>
+        <v>0.05677234609148958</v>
       </c>
       <c r="C55">
-        <v>-0.1045935467732818</v>
+        <v>-0.1233551125379105</v>
       </c>
       <c r="D55">
-        <v>0.006141870478563557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.006452331659345933</v>
+      </c>
+      <c r="E55">
+        <v>-0.00820693242680437</v>
+      </c>
+      <c r="F55">
+        <v>0.03439488034091254</v>
+      </c>
+      <c r="G55">
+        <v>0.04320257565538384</v>
+      </c>
+      <c r="H55">
+        <v>0.01108262593773737</v>
+      </c>
+      <c r="I55">
+        <v>0.07601042451206015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1208636799364677</v>
+        <v>0.07910773498854953</v>
       </c>
       <c r="C56">
-        <v>-0.1350757442614385</v>
+        <v>-0.1707640613136938</v>
       </c>
       <c r="D56">
-        <v>0.001861205838954403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008714672208087833</v>
+      </c>
+      <c r="E56">
+        <v>-0.03790823042203093</v>
+      </c>
+      <c r="F56">
+        <v>0.03162611233908614</v>
+      </c>
+      <c r="G56">
+        <v>0.0559729729085288</v>
+      </c>
+      <c r="H56">
+        <v>0.02762456721536399</v>
+      </c>
+      <c r="I56">
+        <v>0.08111442814326177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02633540063017693</v>
+        <v>-0.01162172346368346</v>
       </c>
       <c r="C58">
-        <v>-0.01940465869902175</v>
+        <v>-0.0387546267690559</v>
       </c>
       <c r="D58">
-        <v>0.2125945400777473</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2846868807457313</v>
+      </c>
+      <c r="E58">
+        <v>-0.03800115243699172</v>
+      </c>
+      <c r="F58">
+        <v>0.0907202822993806</v>
+      </c>
+      <c r="G58">
+        <v>0.07631145671187027</v>
+      </c>
+      <c r="H58">
+        <v>0.1444055285497052</v>
+      </c>
+      <c r="I58">
+        <v>-0.06848192803008302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1728828180525993</v>
+        <v>0.2270610300279042</v>
       </c>
       <c r="C59">
-        <v>0.1464752872370544</v>
+        <v>0.0982914144539878</v>
       </c>
       <c r="D59">
-        <v>0.05142220926839626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06649604098874186</v>
+      </c>
+      <c r="E59">
+        <v>-0.0356921500776366</v>
+      </c>
+      <c r="F59">
+        <v>0.006280203024964925</v>
+      </c>
+      <c r="G59">
+        <v>-0.00348285071259608</v>
+      </c>
+      <c r="H59">
+        <v>0.01542510017753095</v>
+      </c>
+      <c r="I59">
+        <v>-0.002236057994759693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2035681882096296</v>
+        <v>0.167108889083528</v>
       </c>
       <c r="C60">
-        <v>-0.1119920781089046</v>
+        <v>-0.1660309328185742</v>
       </c>
       <c r="D60">
-        <v>0.1699000626305095</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08639013147701727</v>
+      </c>
+      <c r="E60">
+        <v>0.2693198086163254</v>
+      </c>
+      <c r="F60">
+        <v>-0.159398171297313</v>
+      </c>
+      <c r="G60">
+        <v>-0.2450382053131825</v>
+      </c>
+      <c r="H60">
+        <v>0.1214966715738963</v>
+      </c>
+      <c r="I60">
+        <v>-0.03069792100232559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03061657143039227</v>
+        <v>0.01748306153411335</v>
       </c>
       <c r="C61">
-        <v>-0.05843335119414651</v>
+        <v>-0.07066733188605885</v>
       </c>
       <c r="D61">
-        <v>0.1167176924540221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09034503161498908</v>
+      </c>
+      <c r="E61">
+        <v>0.0321280181616074</v>
+      </c>
+      <c r="F61">
+        <v>-0.01445811989248473</v>
+      </c>
+      <c r="G61">
+        <v>0.006788702960037388</v>
+      </c>
+      <c r="H61">
+        <v>-0.0927013330259179</v>
+      </c>
+      <c r="I61">
+        <v>0.02849914645313939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007536403930828605</v>
+        <v>0.003798001327574311</v>
       </c>
       <c r="C63">
-        <v>-0.02569580138009072</v>
+        <v>-0.03458561243423489</v>
       </c>
       <c r="D63">
-        <v>0.09507387049430761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07677605969748381</v>
+      </c>
+      <c r="E63">
+        <v>0.02033697549126446</v>
+      </c>
+      <c r="F63">
+        <v>0.02067698678028241</v>
+      </c>
+      <c r="G63">
+        <v>0.02887210999283333</v>
+      </c>
+      <c r="H63">
+        <v>-0.05379503796118935</v>
+      </c>
+      <c r="I63">
+        <v>0.01111307355956671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05019766396472872</v>
+        <v>0.02710879038402601</v>
       </c>
       <c r="C64">
-        <v>-0.08441862087278508</v>
+        <v>-0.09601745707241538</v>
       </c>
       <c r="D64">
-        <v>0.06473406504897113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05254731818745763</v>
+      </c>
+      <c r="E64">
+        <v>0.02221737880737419</v>
+      </c>
+      <c r="F64">
+        <v>0.03489752968219911</v>
+      </c>
+      <c r="G64">
+        <v>-0.0216091393100809</v>
+      </c>
+      <c r="H64">
+        <v>-0.1182001636128444</v>
+      </c>
+      <c r="I64">
+        <v>0.0198541505888919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0216577399488438</v>
+        <v>0.01604822380646592</v>
       </c>
       <c r="C65">
-        <v>-0.01812299524865187</v>
+        <v>-0.03584611052550351</v>
       </c>
       <c r="D65">
-        <v>0.1201541989725265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1077290378000764</v>
+      </c>
+      <c r="E65">
+        <v>0.03757236807127705</v>
+      </c>
+      <c r="F65">
+        <v>0.01316970498495719</v>
+      </c>
+      <c r="G65">
+        <v>0.01462857217912745</v>
+      </c>
+      <c r="H65">
+        <v>-0.01292250747032076</v>
+      </c>
+      <c r="I65">
+        <v>0.009064209478207271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0237735858186993</v>
+        <v>0.01149467855698982</v>
       </c>
       <c r="C66">
-        <v>-0.06572430790585625</v>
+        <v>-0.08617390301597477</v>
       </c>
       <c r="D66">
-        <v>0.1212820535947227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.131156733259584</v>
+      </c>
+      <c r="E66">
+        <v>0.03654056414768225</v>
+      </c>
+      <c r="F66">
+        <v>-0.01993787541326516</v>
+      </c>
+      <c r="G66">
+        <v>0.01255898325166068</v>
+      </c>
+      <c r="H66">
+        <v>-0.05592947185123761</v>
+      </c>
+      <c r="I66">
+        <v>-0.04664005869663591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03027577977299652</v>
+        <v>0.0283643290823501</v>
       </c>
       <c r="C67">
-        <v>-0.02473698141589969</v>
+        <v>-0.03220234798152458</v>
       </c>
       <c r="D67">
-        <v>0.04040558105687274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03172753023836704</v>
+      </c>
+      <c r="E67">
+        <v>0.001226809118767901</v>
+      </c>
+      <c r="F67">
+        <v>-0.03453902261159793</v>
+      </c>
+      <c r="G67">
+        <v>0.02498614118883558</v>
+      </c>
+      <c r="H67">
+        <v>-0.05667557678539743</v>
+      </c>
+      <c r="I67">
+        <v>0.002658799265046967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2139430465257619</v>
+        <v>0.2595764392918865</v>
       </c>
       <c r="C68">
-        <v>0.1607049036702447</v>
+        <v>0.09980856879889832</v>
       </c>
       <c r="D68">
-        <v>0.03530626168940362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03788847882896156</v>
+      </c>
+      <c r="E68">
+        <v>-0.002344420697937077</v>
+      </c>
+      <c r="F68">
+        <v>0.02714559671674524</v>
+      </c>
+      <c r="G68">
+        <v>0.04761936740380215</v>
+      </c>
+      <c r="H68">
+        <v>0.04446744844997375</v>
+      </c>
+      <c r="I68">
+        <v>0.05770842405113782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06256813844982179</v>
+        <v>0.0351949332219315</v>
       </c>
       <c r="C69">
-        <v>-0.1103257774648555</v>
+        <v>-0.1154123560832868</v>
       </c>
       <c r="D69">
-        <v>0.08559064495552197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04530570355456019</v>
+      </c>
+      <c r="E69">
+        <v>0.006409699675054804</v>
+      </c>
+      <c r="F69">
+        <v>-0.007560649482351434</v>
+      </c>
+      <c r="G69">
+        <v>-0.01380729275900411</v>
+      </c>
+      <c r="H69">
+        <v>-0.03779146386846313</v>
+      </c>
+      <c r="I69">
+        <v>0.07518963516596958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2107876522240741</v>
+        <v>0.2567168015958241</v>
       </c>
       <c r="C71">
-        <v>0.174734740852008</v>
+        <v>0.115291955742909</v>
       </c>
       <c r="D71">
-        <v>0.04144465610738963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03725720511504289</v>
+      </c>
+      <c r="E71">
+        <v>-0.01146001777463018</v>
+      </c>
+      <c r="F71">
+        <v>0.03271861370830191</v>
+      </c>
+      <c r="G71">
+        <v>0.06084711156551301</v>
+      </c>
+      <c r="H71">
+        <v>0.01109978451761922</v>
+      </c>
+      <c r="I71">
+        <v>0.1537360204579641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1013580586635568</v>
+        <v>0.06879277429941058</v>
       </c>
       <c r="C72">
-        <v>-0.07965730054367084</v>
+        <v>-0.1168505098778153</v>
       </c>
       <c r="D72">
-        <v>0.09364028521313192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07294112074666012</v>
+      </c>
+      <c r="E72">
+        <v>0.08851021580633628</v>
+      </c>
+      <c r="F72">
+        <v>-0.001252612614951205</v>
+      </c>
+      <c r="G72">
+        <v>0.01080927336308731</v>
+      </c>
+      <c r="H72">
+        <v>-0.0547096858351599</v>
+      </c>
+      <c r="I72">
+        <v>-0.0003873577414112652</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1876871477269503</v>
+        <v>0.1502142997796629</v>
       </c>
       <c r="C73">
-        <v>-0.06568644366787234</v>
+        <v>-0.1317676835450313</v>
       </c>
       <c r="D73">
-        <v>0.2131385441363706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06458355639561013</v>
+      </c>
+      <c r="E73">
+        <v>0.4561395693849452</v>
+      </c>
+      <c r="F73">
+        <v>-0.2432161100595612</v>
+      </c>
+      <c r="G73">
+        <v>-0.414084234242306</v>
+      </c>
+      <c r="H73">
+        <v>0.03612777342198804</v>
+      </c>
+      <c r="I73">
+        <v>-0.03824118399820161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.09591622390483663</v>
+        <v>0.06123446668395671</v>
       </c>
       <c r="C74">
-        <v>-0.1101091208867387</v>
+        <v>-0.1310416104189105</v>
       </c>
       <c r="D74">
-        <v>-0.01684395823294822</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02780718606386636</v>
+      </c>
+      <c r="E74">
+        <v>-0.02625773748929542</v>
+      </c>
+      <c r="F74">
+        <v>0.06370307539891905</v>
+      </c>
+      <c r="G74">
+        <v>0.008721970667968072</v>
+      </c>
+      <c r="H74">
+        <v>0.02311973190274018</v>
+      </c>
+      <c r="I74">
+        <v>0.09596169132069347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2415694354507963</v>
+        <v>0.1649033911007267</v>
       </c>
       <c r="C75">
-        <v>-0.197203072160631</v>
+        <v>-0.2532570374198552</v>
       </c>
       <c r="D75">
-        <v>-0.1023322063757549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1218078578529231</v>
+      </c>
+      <c r="E75">
+        <v>-0.08250994901376248</v>
+      </c>
+      <c r="F75">
+        <v>-0.02647924611539553</v>
+      </c>
+      <c r="G75">
+        <v>0.05700349880998305</v>
+      </c>
+      <c r="H75">
+        <v>0.02587945039780234</v>
+      </c>
+      <c r="I75">
+        <v>0.08897554022428769</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1349178771988247</v>
+        <v>0.08744894731307623</v>
       </c>
       <c r="C76">
-        <v>-0.1419986106632221</v>
+        <v>-0.1722854417027256</v>
       </c>
       <c r="D76">
-        <v>0.01472778223123595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01038362617648719</v>
+      </c>
+      <c r="E76">
+        <v>-0.03925736048662169</v>
+      </c>
+      <c r="F76">
+        <v>0.0176987684773951</v>
+      </c>
+      <c r="G76">
+        <v>0.05789351251400796</v>
+      </c>
+      <c r="H76">
+        <v>-0.01130616272024423</v>
+      </c>
+      <c r="I76">
+        <v>0.09148910964204342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0229760912454124</v>
+        <v>0.03272916729083116</v>
       </c>
       <c r="C77">
-        <v>-0.08216436008498375</v>
+        <v>-0.09300063005552395</v>
       </c>
       <c r="D77">
-        <v>0.05060211027033307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2427097012225844</v>
+      </c>
+      <c r="E77">
+        <v>-0.6872711294098716</v>
+      </c>
+      <c r="F77">
+        <v>-0.4152478905024496</v>
+      </c>
+      <c r="G77">
+        <v>-0.3326971894290028</v>
+      </c>
+      <c r="H77">
+        <v>0.2326079239466596</v>
+      </c>
+      <c r="I77">
+        <v>0.1193808464826452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02106963339322419</v>
+        <v>0.01761881493207872</v>
       </c>
       <c r="C78">
-        <v>-0.07027558954455775</v>
+        <v>-0.08144463321653736</v>
       </c>
       <c r="D78">
-        <v>0.1619602444890309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1457230191058507</v>
+      </c>
+      <c r="E78">
+        <v>0.04526021358801373</v>
+      </c>
+      <c r="F78">
+        <v>0.03903809480289584</v>
+      </c>
+      <c r="G78">
+        <v>0.0118779561825267</v>
+      </c>
+      <c r="H78">
+        <v>-0.02087856311483006</v>
+      </c>
+      <c r="I78">
+        <v>-0.03255764750092767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.06619189905917626</v>
+        <v>0.04251296139340748</v>
       </c>
       <c r="C79">
-        <v>-0.1421856344895148</v>
+        <v>-0.1603269495748063</v>
       </c>
       <c r="D79">
-        <v>-0.0824831314252305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0326486100605019</v>
+      </c>
+      <c r="E79">
+        <v>-0.1629715613649019</v>
+      </c>
+      <c r="F79">
+        <v>0.7593908939404472</v>
+      </c>
+      <c r="G79">
+        <v>-0.5018269190043807</v>
+      </c>
+      <c r="H79">
+        <v>0.06596996193234904</v>
+      </c>
+      <c r="I79">
+        <v>-0.153213227008246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009569573651768146</v>
+        <v>0.004094701219095772</v>
       </c>
       <c r="C80">
-        <v>-0.0557423248323922</v>
+        <v>-0.05518459536203837</v>
       </c>
       <c r="D80">
-        <v>0.03701215294021865</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03612978181785329</v>
+      </c>
+      <c r="E80">
+        <v>0.01469459212010873</v>
+      </c>
+      <c r="F80">
+        <v>0.0146655811068658</v>
+      </c>
+      <c r="G80">
+        <v>0.06985080072393171</v>
+      </c>
+      <c r="H80">
+        <v>-0.008192837792191354</v>
+      </c>
+      <c r="I80">
+        <v>0.01175114073368708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1222838609283766</v>
+        <v>0.07393475884067433</v>
       </c>
       <c r="C81">
-        <v>-0.1418672142510291</v>
+        <v>-0.165034165803371</v>
       </c>
       <c r="D81">
-        <v>-0.06841087905610554</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07495261537899202</v>
+      </c>
+      <c r="E81">
+        <v>-0.07763831642698799</v>
+      </c>
+      <c r="F81">
+        <v>0.05031462631374516</v>
+      </c>
+      <c r="G81">
+        <v>0.07058683192887932</v>
+      </c>
+      <c r="H81">
+        <v>-0.04324499266786165</v>
+      </c>
+      <c r="I81">
+        <v>0.1151070846977866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2346149937834702</v>
+        <v>0.1362155456435899</v>
       </c>
       <c r="C82">
-        <v>-0.3010159327149219</v>
+        <v>-0.3172524554390946</v>
       </c>
       <c r="D82">
-        <v>-0.2094111783758275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2123093777233293</v>
+      </c>
+      <c r="E82">
+        <v>-0.0504528535552097</v>
+      </c>
+      <c r="F82">
+        <v>-0.08123467948927879</v>
+      </c>
+      <c r="G82">
+        <v>0.1017130987710201</v>
+      </c>
+      <c r="H82">
+        <v>-0.05766715882296815</v>
+      </c>
+      <c r="I82">
+        <v>0.1107331981506454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.006368328783494679</v>
+        <v>-0.005014731274357131</v>
       </c>
       <c r="C83">
-        <v>-0.06134507587192958</v>
+        <v>-0.05146115601100715</v>
       </c>
       <c r="D83">
-        <v>0.02479615411346706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04286115250476389</v>
+      </c>
+      <c r="E83">
+        <v>-0.09460362228416402</v>
+      </c>
+      <c r="F83">
+        <v>-0.02534218125995983</v>
+      </c>
+      <c r="G83">
+        <v>0.02932602803852981</v>
+      </c>
+      <c r="H83">
+        <v>-0.05538552519090259</v>
+      </c>
+      <c r="I83">
+        <v>-0.1102804669486315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001743665726375286</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.01334244213911713</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03313878116528472</v>
+      </c>
+      <c r="E84">
+        <v>-0.00732963786404257</v>
+      </c>
+      <c r="F84">
+        <v>0.01795219302324606</v>
+      </c>
+      <c r="G84">
+        <v>0.03547915045492983</v>
+      </c>
+      <c r="H84">
+        <v>0.005215402563024976</v>
+      </c>
+      <c r="I84">
+        <v>-0.02991228414591863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.152349201476628</v>
+        <v>0.09628904987239861</v>
       </c>
       <c r="C85">
-        <v>-0.1441339056270199</v>
+        <v>-0.1869172803081981</v>
       </c>
       <c r="D85">
-        <v>-0.05169970172363194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08719799694076941</v>
+      </c>
+      <c r="E85">
+        <v>-0.004977834759731199</v>
+      </c>
+      <c r="F85">
+        <v>0.07816179720592092</v>
+      </c>
+      <c r="G85">
+        <v>0.01583425618248855</v>
+      </c>
+      <c r="H85">
+        <v>0.01585145542044221</v>
+      </c>
+      <c r="I85">
+        <v>0.08464761798130328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.007804593380755947</v>
+        <v>0.008596431621019132</v>
       </c>
       <c r="C86">
-        <v>-0.02509414734598979</v>
+        <v>-0.02818824744802036</v>
       </c>
       <c r="D86">
-        <v>0.09196583745603158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1085095992426501</v>
+      </c>
+      <c r="E86">
+        <v>-0.0435193827258166</v>
+      </c>
+      <c r="F86">
+        <v>-0.01779377072639472</v>
+      </c>
+      <c r="G86">
+        <v>0.01499059630627767</v>
+      </c>
+      <c r="H86">
+        <v>-0.01020286147020124</v>
+      </c>
+      <c r="I86">
+        <v>0.08439964398955602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01724633943655421</v>
+        <v>0.01904371201423717</v>
       </c>
       <c r="C87">
-        <v>-0.02461610160876687</v>
+        <v>-0.04286986267321845</v>
       </c>
       <c r="D87">
-        <v>0.1255019500564712</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1493131846338037</v>
+      </c>
+      <c r="E87">
+        <v>-0.01293298166590001</v>
+      </c>
+      <c r="F87">
+        <v>0.03518852681869276</v>
+      </c>
+      <c r="G87">
+        <v>0.05682058533921901</v>
+      </c>
+      <c r="H87">
+        <v>-0.02277716550525096</v>
+      </c>
+      <c r="I87">
+        <v>-0.08023014302465838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05953390015942421</v>
+        <v>0.04110668604203113</v>
       </c>
       <c r="C88">
-        <v>-0.04527046244475647</v>
+        <v>-0.06383829038471904</v>
       </c>
       <c r="D88">
-        <v>0.0429638189600316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01300155660259109</v>
+      </c>
+      <c r="E88">
+        <v>0.01774322213224657</v>
+      </c>
+      <c r="F88">
+        <v>0.02356077130936856</v>
+      </c>
+      <c r="G88">
+        <v>-0.01096345706606518</v>
+      </c>
+      <c r="H88">
+        <v>-0.01995257338610551</v>
+      </c>
+      <c r="I88">
+        <v>0.03906685265889055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3271900286395089</v>
+        <v>0.3927117869394895</v>
       </c>
       <c r="C89">
-        <v>0.3279089107060487</v>
+        <v>0.215106894309846</v>
       </c>
       <c r="D89">
-        <v>0.01247095984242042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02427615080045551</v>
+      </c>
+      <c r="E89">
+        <v>-0.04929681534695686</v>
+      </c>
+      <c r="F89">
+        <v>0.0387619291608732</v>
+      </c>
+      <c r="G89">
+        <v>0.06129753015067845</v>
+      </c>
+      <c r="H89">
+        <v>-0.1829445413107398</v>
+      </c>
+      <c r="I89">
+        <v>-0.4080784305333873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2597452617026718</v>
+        <v>0.3051568190334258</v>
       </c>
       <c r="C90">
-        <v>0.2351299526991018</v>
+        <v>0.1450005212462661</v>
       </c>
       <c r="D90">
-        <v>0.03446941772162541</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04082757589714842</v>
+      </c>
+      <c r="E90">
+        <v>-0.007892457493245929</v>
+      </c>
+      <c r="F90">
+        <v>-0.01422153904223413</v>
+      </c>
+      <c r="G90">
+        <v>0.05435889196083034</v>
+      </c>
+      <c r="H90">
+        <v>0.0375885856011471</v>
+      </c>
+      <c r="I90">
+        <v>0.06054574509840407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1532638731434303</v>
+        <v>0.09614110772779272</v>
       </c>
       <c r="C91">
-        <v>-0.1877351933190634</v>
+        <v>-0.2069167764820236</v>
       </c>
       <c r="D91">
-        <v>-0.1007060200670895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1023691680290471</v>
+      </c>
+      <c r="E91">
+        <v>-0.08046946385581234</v>
+      </c>
+      <c r="F91">
+        <v>0.0743350250774247</v>
+      </c>
+      <c r="G91">
+        <v>0.008981643229623073</v>
+      </c>
+      <c r="H91">
+        <v>0.007591837029832891</v>
+      </c>
+      <c r="I91">
+        <v>0.09130940490793285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.230422162503594</v>
+        <v>0.307880571218481</v>
       </c>
       <c r="C92">
-        <v>0.2532538763486369</v>
+        <v>0.187077490351764</v>
       </c>
       <c r="D92">
-        <v>-0.02701552420254615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01351502541620332</v>
+      </c>
+      <c r="E92">
+        <v>-0.08832828024268154</v>
+      </c>
+      <c r="F92">
+        <v>0.03779686416793121</v>
+      </c>
+      <c r="G92">
+        <v>0.04293850987685163</v>
+      </c>
+      <c r="H92">
+        <v>0.0003412598582586682</v>
+      </c>
+      <c r="I92">
+        <v>0.01022812778417973</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2875314901100116</v>
+        <v>0.3271212803733899</v>
       </c>
       <c r="C93">
-        <v>0.249917712326619</v>
+        <v>0.1543860915566067</v>
       </c>
       <c r="D93">
-        <v>0.02985446175059053</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001357704448324538</v>
+      </c>
+      <c r="E93">
+        <v>0.03693413672694073</v>
+      </c>
+      <c r="F93">
+        <v>0.01821548796465206</v>
+      </c>
+      <c r="G93">
+        <v>-0.02942427943239479</v>
+      </c>
+      <c r="H93">
+        <v>0.01986543877146</v>
+      </c>
+      <c r="I93">
+        <v>0.128834747190365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3009704630345674</v>
+        <v>0.1967283137500478</v>
       </c>
       <c r="C94">
-        <v>-0.279030968448936</v>
+        <v>-0.3475951086282811</v>
       </c>
       <c r="D94">
-        <v>-0.367757735720743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3602689061752402</v>
+      </c>
+      <c r="E94">
+        <v>-0.05485691454575455</v>
+      </c>
+      <c r="F94">
+        <v>-0.09224118747513115</v>
+      </c>
+      <c r="G94">
+        <v>0.2766091694743188</v>
+      </c>
+      <c r="H94">
+        <v>0.1074502707098131</v>
+      </c>
+      <c r="I94">
+        <v>-0.4341304226457912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03454792314292607</v>
+        <v>0.02979150433777886</v>
       </c>
       <c r="C95">
-        <v>-0.0452958088259947</v>
+        <v>-0.06652995678643214</v>
       </c>
       <c r="D95">
-        <v>0.08682527198976338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.111665838560292</v>
+      </c>
+      <c r="E95">
+        <v>-0.195505454451967</v>
+      </c>
+      <c r="F95">
+        <v>-0.1906856328179581</v>
+      </c>
+      <c r="G95">
+        <v>-0.1681535241775257</v>
+      </c>
+      <c r="H95">
+        <v>-0.4772644291825908</v>
+      </c>
+      <c r="I95">
+        <v>-0.4628697730047088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-8.190845788974151e-06</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001329275010430385</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0003578747481624233</v>
+      </c>
+      <c r="E97">
+        <v>0.000434369490668332</v>
+      </c>
+      <c r="F97">
+        <v>-0.001514763873800735</v>
+      </c>
+      <c r="G97">
+        <v>-0.001183349830858371</v>
+      </c>
+      <c r="H97">
+        <v>-0.001336528631684841</v>
+      </c>
+      <c r="I97">
+        <v>0.0004740630566404575</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1520541502449722</v>
+        <v>0.1274582360087659</v>
       </c>
       <c r="C98">
-        <v>-0.079016618295708</v>
+        <v>-0.1279719173235213</v>
       </c>
       <c r="D98">
-        <v>0.1339359979630216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06102780973355704</v>
+      </c>
+      <c r="E98">
+        <v>0.2918077001161102</v>
+      </c>
+      <c r="F98">
+        <v>-0.1405876463576318</v>
+      </c>
+      <c r="G98">
+        <v>-0.2286294365022208</v>
+      </c>
+      <c r="H98">
+        <v>0.07800309026903939</v>
+      </c>
+      <c r="I98">
+        <v>0.02099291674834803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004528316220411304</v>
+        <v>-0.001890372415130252</v>
       </c>
       <c r="C101">
-        <v>-0.02053625774739123</v>
+        <v>-0.02555852646979671</v>
       </c>
       <c r="D101">
-        <v>0.1024547777789206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1037438725543212</v>
+      </c>
+      <c r="E101">
+        <v>0.03115480211779161</v>
+      </c>
+      <c r="F101">
+        <v>0.03112824069088702</v>
+      </c>
+      <c r="G101">
+        <v>0.04540208818002604</v>
+      </c>
+      <c r="H101">
+        <v>-0.1008931745113635</v>
+      </c>
+      <c r="I101">
+        <v>0.02006265739723264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1079489801911045</v>
+        <v>0.05888470390511095</v>
       </c>
       <c r="C102">
-        <v>-0.1520467237696194</v>
+        <v>-0.1514433509712397</v>
       </c>
       <c r="D102">
-        <v>-0.07184764381290969</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08664218741082912</v>
+      </c>
+      <c r="E102">
+        <v>-0.0324945073739196</v>
+      </c>
+      <c r="F102">
+        <v>-0.05810993466011858</v>
+      </c>
+      <c r="G102">
+        <v>0.00486363557359502</v>
+      </c>
+      <c r="H102">
+        <v>-0.05108753419701163</v>
+      </c>
+      <c r="I102">
+        <v>0.04013972549914427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
